--- a/Review/3_plots/data/results_corrected.xlsx
+++ b/Review/3_plots/data/results_corrected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Coding Projekte (Git)/Review_Validity/Review/3_plots/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FF7A6-CF46-DD47-8BAC-5AEF1571C93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51CC81D-56F0-B34C-905D-BA2239BC2DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="644">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Goet, Niels D.</t>
   </si>
   <si>
-    <t>Politics: Parliamentary Records</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>Jung, Jae‐Hee</t>
-  </si>
-  <si>
-    <t>Politics: Party Manifestos</t>
   </si>
   <si>
     <t>moral rhetoric</t>
@@ -439,9 +433,6 @@
   </si>
   <si>
     <t>Rossiter, Erin L.</t>
-  </si>
-  <si>
-    <t>Politics: Others, Presidential Debates, online discussion (mturk), In-Person Deliberations</t>
   </si>
   <si>
     <t>Shift in Agenda Setting</t>
@@ -557,9 +548,6 @@
     <t>Bustikova, Lenka; Siroky, David S.; Alashri, Saud; Alzahrani, Sultan</t>
   </si>
   <si>
-    <t>Party Websites</t>
-  </si>
-  <si>
     <t>Slovak (slovakia)</t>
   </si>
   <si>
@@ -980,9 +968,6 @@
     <t>The intercoder-reliability score between the two coders and the topic model was with a Krippendorff’s alpha of 0.67 acceptable for our case.</t>
   </si>
   <si>
-    <t>Politics: Parliamentary Records, in-person and online discussions</t>
-  </si>
-  <si>
     <t>Relative agenda-setting power of actors</t>
   </si>
   <si>
@@ -1094,9 +1079,6 @@
   </si>
   <si>
     <t>Rossini, Patrícia; Sturm-Wikerson, Heloisa; Johnson, Thomas J.</t>
-  </si>
-  <si>
-    <t>Social Media: Facebook, Campaign Messages</t>
   </si>
   <si>
     <t>campaign message strategies (attack, advocacy)</t>
@@ -1459,9 +1441,6 @@
   </si>
   <si>
     <t>Gilardi, Fabrizio; Gessler, Theresa; Kubli, Maël; Müller, Stefan</t>
-  </si>
-  <si>
-    <t>Newspaper, Social Media: Twitter, Politics: Press Releases</t>
   </si>
   <si>
     <t>Swiss, French</t>
@@ -1552,9 +1531,6 @@
   </si>
   <si>
     <t>Dai, Yaoyao; Kustov, Alexander</t>
-  </si>
-  <si>
-    <t>Politics: Campaign Speeches</t>
   </si>
   <si>
     <t>poulist rhetoric</t>
@@ -1873,9 +1849,6 @@
     <t>Neumann, Markus; Linder, Fridolin; Desmarais, Bruce</t>
   </si>
   <si>
-    <t>Politics: Government Websites</t>
-  </si>
-  <si>
     <t>topic</t>
   </si>
   <si>
@@ -1960,9 +1933,6 @@
     <t>Proksch, Sven-Oliver; Lowe, Will; Wäckerle, Jens; Soroka, Stuart</t>
   </si>
   <si>
-    <t>Legislative Bills</t>
-  </si>
-  <si>
     <t>Sentiment</t>
   </si>
   <si>
@@ -2104,9 +2074,6 @@
     <t>Müller, Stefan</t>
   </si>
   <si>
-    <t>Politics: Political news statements</t>
-  </si>
-  <si>
     <t>promises (classifciation)</t>
   </si>
   <si>
@@ -2351,6 +2318,33 @@
   </si>
   <si>
     <t>f_v4</t>
+  </si>
+  <si>
+    <t>Party Politics: Statements</t>
+  </si>
+  <si>
+    <t>Party Politics: Party Websites</t>
+  </si>
+  <si>
+    <t>Party Politics: Speech Transcripts</t>
+  </si>
+  <si>
+    <t>Party Politics: Speech Transcripts, in-person and online discussions</t>
+  </si>
+  <si>
+    <t>Party Politics: Party Manifestos</t>
+  </si>
+  <si>
+    <t>Social Media: Facebook, Party Politics: Campaign Messages</t>
+  </si>
+  <si>
+    <t>Newspaper, Social Media: Twitter, Party Politics: Press Releases</t>
+  </si>
+  <si>
+    <t>Government Websites</t>
+  </si>
+  <si>
+    <t>Others: Legislative Bills</t>
   </si>
 </sst>
 </file>
@@ -2717,9 +2711,9 @@
   </sheetPr>
   <dimension ref="A1:AQ199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2774,76 +2768,76 @@
         <v>14</v>
       </c>
       <c r="P1" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA1" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="AB1" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="AC1" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="AE1" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="AF1" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="AG1" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="AH1" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="AI1" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>631</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AK1" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AL1" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AM1" s="30" t="s">
         <v>634</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="AD1" s="30" t="s">
-        <v>636</v>
-      </c>
-      <c r="AE1" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF1" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="AG1" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="AH1" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="AI1" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="AJ1" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="AK1" s="30" t="s">
-        <v>643</v>
-      </c>
-      <c r="AL1" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="AM1" s="30" t="s">
-        <v>645</v>
       </c>
       <c r="AN1" s="13" t="s">
         <v>15</v>
@@ -2872,7 +2866,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -2923,20 +2917,20 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="20" t="s">
@@ -2947,10 +2941,10 @@
         <v>30</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R3" s="22" t="s">
         <v>28</v>
@@ -2959,10 +2953,10 @@
         <v>30</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V3" s="24" t="s">
         <v>28</v>
@@ -2971,10 +2965,10 @@
         <v>30</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>28</v>
@@ -3006,30 +3000,30 @@
         <v>44805.827170081015</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="20" t="s">
@@ -3040,25 +3034,25 @@
         <v>30</v>
       </c>
       <c r="P4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="S4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="U4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="24" t="s">
+      <c r="V4" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>21</v>
@@ -3099,7 +3093,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3133,7 +3127,7 @@
       <c r="AO5" s="19"/>
       <c r="AP5" s="19"/>
       <c r="AQ5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3150,7 +3144,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3184,7 +3178,7 @@
       <c r="AO6" s="19"/>
       <c r="AP6" s="19"/>
       <c r="AQ6" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3192,85 +3186,85 @@
         <v>44809.643060682865</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="22" t="s">
+      <c r="R7" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="S7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="U7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="W7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="Y7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="W7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="22" t="s">
+      <c r="Z7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Y7" s="22" t="s">
+      <c r="AA7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AC7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AA7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC7" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="AD7" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE7" s="15" t="s">
         <v>21</v>
@@ -3291,7 +3285,7 @@
         <v>30</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3299,16 +3293,16 @@
         <v>44809.646386770837</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3342,7 +3336,7 @@
       <c r="AO8" s="19"/>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3350,30 +3344,30 @@
         <v>44809.666852118055</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20" t="s">
@@ -3384,13 +3378,13 @@
         <v>30</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S9" s="15" t="s">
         <v>21</v>
@@ -3420,7 +3414,7 @@
         <v>30</v>
       </c>
       <c r="AQ9" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3428,32 +3422,32 @@
         <v>44810.448212800926</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="20" t="s">
@@ -3464,13 +3458,13 @@
         <v>30</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S10" s="15" t="s">
         <v>21</v>
@@ -3496,7 +3490,7 @@
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
       <c r="AQ10" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3504,30 +3498,30 @@
         <v>44810.470930243057</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="20" t="s">
@@ -3538,13 +3532,13 @@
         <v>30</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S11" s="15" t="s">
         <v>21</v>
@@ -3570,7 +3564,7 @@
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
       <c r="AQ11" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3578,16 +3572,16 @@
         <v>44810.489268726851</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3621,7 +3615,7 @@
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
       <c r="AQ12" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3629,85 +3623,85 @@
         <v>44810.627858414351</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="20" t="s">
-        <v>113</v>
+        <v>637</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="O13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="22" t="s">
+      <c r="U13" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="Q13" s="22" t="s">
+      <c r="V13" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="R13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T13" s="24" t="s">
+      <c r="Y13" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="U13" s="24" t="s">
+      <c r="Z13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="V13" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" s="22" t="s">
+      <c r="AC13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="Y13" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC13" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="AD13" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE13" s="15" t="s">
         <v>21</v>
@@ -3728,7 +3722,7 @@
         <v>30</v>
       </c>
       <c r="AQ13" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3736,16 +3730,16 @@
         <v>44810.65508744213</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -3779,7 +3773,7 @@
       <c r="AO14" s="19"/>
       <c r="AP14" s="19"/>
       <c r="AQ14" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3787,16 +3781,16 @@
         <v>44810.66047023148</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3830,7 +3824,7 @@
       <c r="AO15" s="19"/>
       <c r="AP15" s="19"/>
       <c r="AQ15" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3838,75 +3832,75 @@
         <v>44810.711688807874</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N16" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="O16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="22" t="s">
+      <c r="U16" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="V16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="R16" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="24" t="s">
+      <c r="Y16" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="U16" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="W16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y16" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="Z16" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA16" s="15" t="s">
         <v>21</v>
@@ -3930,7 +3924,7 @@
         <v>21</v>
       </c>
       <c r="AQ16" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3938,16 +3932,16 @@
         <v>44810.737058472223</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -3981,7 +3975,7 @@
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3989,63 +3983,63 @@
         <v>44811.389011261577</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="20" t="s">
-        <v>151</v>
+        <v>636</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N18" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="O18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="U18" s="24" t="s">
-        <v>160</v>
-      </c>
       <c r="V18" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W18" s="15" t="s">
         <v>21</v>
@@ -4072,7 +4066,7 @@
         <v>30</v>
       </c>
       <c r="AQ18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4080,73 +4074,73 @@
         <v>44811.485760266209</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N19" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="U19" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="O19" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="22" t="s">
+      <c r="V19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="Q19" s="22" t="s">
+      <c r="Y19" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="R19" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="U19" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="V19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="W19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X19" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y19" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="Z19" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA19" s="15" t="s">
         <v>21</v>
@@ -4170,7 +4164,7 @@
         <v>30</v>
       </c>
       <c r="AQ19" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4178,75 +4172,75 @@
         <v>44811.567180405094</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N20" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="U20" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="O20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="22" t="s">
+      <c r="V20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="Q20" s="22" t="s">
+      <c r="Y20" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="R20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T20" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="V20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X20" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y20" s="22" t="s">
-        <v>185</v>
-      </c>
       <c r="Z20" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA20" s="15" t="s">
         <v>21</v>
@@ -4270,7 +4264,7 @@
         <v>30</v>
       </c>
       <c r="AQ20" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4278,49 +4272,49 @@
         <v>44811.591906678237</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O21" s="21" t="s">
         <v>30</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q21" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R21" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S21" s="15" t="s">
         <v>21</v>
@@ -4350,7 +4344,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4358,30 +4352,30 @@
         <v>44816.637218425923</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="20" t="s">
@@ -4392,49 +4386,49 @@
         <v>30</v>
       </c>
       <c r="P22" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="V22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Y22" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="R22" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T22" s="24" t="s">
+      <c r="Z22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="AC22" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="V22" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="W22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X22" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y22" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB22" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC22" s="24" t="s">
-        <v>206</v>
-      </c>
       <c r="AD22" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE22" s="15" t="s">
         <v>21</v>
@@ -4451,7 +4445,7 @@
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
       <c r="AQ22" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4459,30 +4453,30 @@
         <v>44816.657945648149</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="20" t="s">
@@ -4493,49 +4487,49 @@
         <v>30</v>
       </c>
       <c r="P23" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="U23" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="V23" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="Q23" s="22" t="s">
+      <c r="Y23" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="R23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T23" s="24" t="s">
+      <c r="Z23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="AC23" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="V23" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X23" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y23" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB23" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC23" s="24" t="s">
-        <v>219</v>
-      </c>
       <c r="AD23" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE23" s="15" t="s">
         <v>21</v>
@@ -4556,7 +4550,7 @@
         <v>21</v>
       </c>
       <c r="AQ23" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4564,49 +4558,49 @@
         <v>44817.500956076387</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O24" s="21" t="s">
         <v>30</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R24" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S24" s="15" t="s">
         <v>21</v>
@@ -4636,7 +4630,7 @@
         <v>21</v>
       </c>
       <c r="AQ24" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4644,37 +4638,37 @@
         <v>44818.642666655098</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O25" s="21" t="s">
         <v>21</v>
@@ -4707,7 +4701,7 @@
         <v>21</v>
       </c>
       <c r="AQ25" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4715,30 +4709,30 @@
         <v>44819.419327349533</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>29</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="20" t="s">
@@ -4749,13 +4743,13 @@
         <v>30</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="R26" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>21</v>
@@ -4781,7 +4775,7 @@
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
       <c r="AQ26" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4789,32 +4783,32 @@
         <v>44819.440220254633</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="20" t="s">
@@ -4825,37 +4819,37 @@
         <v>30</v>
       </c>
       <c r="P27" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="U27" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X27" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="Q27" s="22" t="s">
+      <c r="Y27" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="R27" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T27" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="U27" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="V27" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="W27" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X27" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y27" s="22" t="s">
-        <v>246</v>
-      </c>
       <c r="Z27" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA27" s="15" t="s">
         <v>21</v>
@@ -4879,7 +4873,7 @@
         <v>30</v>
       </c>
       <c r="AQ27" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4887,16 +4881,16 @@
         <v>44819.444338900459</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -4930,7 +4924,7 @@
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
       <c r="AQ28" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4938,30 +4932,30 @@
         <v>44824.914519363425</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="20" t="s">
@@ -4972,49 +4966,49 @@
         <v>30</v>
       </c>
       <c r="P29" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="R29" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="U29" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="V29" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X29" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y29" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="Q29" s="22" t="s">
+      <c r="Z29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB29" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC29" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="R29" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T29" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="U29" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="V29" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="W29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X29" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y29" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB29" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC29" s="24" t="s">
-        <v>259</v>
-      </c>
       <c r="AD29" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AE29" s="15" t="s">
         <v>21</v>
@@ -5035,7 +5029,7 @@
         <v>30</v>
       </c>
       <c r="AQ29" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5043,30 +5037,30 @@
         <v>44824.927111759258</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="20" t="s">
@@ -5077,49 +5071,49 @@
         <v>30</v>
       </c>
       <c r="P30" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="V30" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="W30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X30" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y30" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC30" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="Q30" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="R30" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="U30" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="V30" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="W30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X30" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y30" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB30" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC30" s="24" t="s">
-        <v>267</v>
-      </c>
       <c r="AD30" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE30" s="15" t="s">
         <v>21</v>
@@ -5140,7 +5134,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -5148,30 +5142,30 @@
         <v>44824.936286099539</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="20" t="s">
@@ -5205,7 +5199,7 @@
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
       <c r="AQ31" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="112" x14ac:dyDescent="0.15">
@@ -5213,16 +5207,16 @@
         <v>44838.287174814817</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -5256,7 +5250,7 @@
       <c r="AO32" s="19"/>
       <c r="AP32" s="19"/>
       <c r="AQ32" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:43" ht="98" x14ac:dyDescent="0.15">
@@ -5264,16 +5258,16 @@
         <v>44838.289070868057</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -5307,7 +5301,7 @@
       <c r="AO33" s="19"/>
       <c r="AP33" s="19"/>
       <c r="AQ33" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:43" ht="28" x14ac:dyDescent="0.15">
@@ -5315,16 +5309,16 @@
         <v>44838.293343773148</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -5358,7 +5352,7 @@
       <c r="AO34" s="19"/>
       <c r="AP34" s="19"/>
       <c r="AQ34" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:43" ht="42" x14ac:dyDescent="0.15">
@@ -5366,16 +5360,16 @@
         <v>44838.296179166668</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -5409,7 +5403,7 @@
       <c r="AO35" s="19"/>
       <c r="AP35" s="19"/>
       <c r="AQ35" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="42" x14ac:dyDescent="0.15">
@@ -5417,16 +5411,16 @@
         <v>44838.312631099536</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -5460,7 +5454,7 @@
       <c r="AO36" s="19"/>
       <c r="AP36" s="19"/>
       <c r="AQ36" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -5468,30 +5462,30 @@
         <v>44838.331505243055</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="20" t="s">
@@ -5502,25 +5496,25 @@
         <v>30</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R37" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S37" s="15" t="s">
         <v>30</v>
       </c>
       <c r="T37" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="U37" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="V37" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W37" s="15" t="s">
         <v>21</v>
@@ -5547,7 +5541,7 @@
         <v>21</v>
       </c>
       <c r="AQ37" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -5555,30 +5549,30 @@
         <v>44838.336661261579</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="20" t="s">
@@ -5589,13 +5583,13 @@
         <v>30</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="R38" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S38" s="15" t="s">
         <v>21</v>
@@ -5625,7 +5619,7 @@
         <v>21</v>
       </c>
       <c r="AQ38" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -5633,30 +5627,30 @@
         <v>44838.345808993057</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="20" t="s">
@@ -5667,13 +5661,13 @@
         <v>30</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="R39" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S39" s="15" t="s">
         <v>21</v>
@@ -5699,7 +5693,7 @@
       <c r="AO39" s="19"/>
       <c r="AP39" s="19"/>
       <c r="AQ39" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -5707,30 +5701,30 @@
         <v>44838.419037974541</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="20" t="s">
-        <v>289</v>
+        <v>638</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="20" t="s">
@@ -5741,49 +5735,49 @@
         <v>30</v>
       </c>
       <c r="P40" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="U40" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="V40" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="W40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X40" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y40" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="Q40" s="22" t="s">
+      <c r="Z40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB40" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="R40" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T40" s="24" t="s">
+      <c r="AC40" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="U40" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="V40" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="W40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X40" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y40" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB40" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC40" s="24" t="s">
-        <v>299</v>
-      </c>
       <c r="AD40" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AE40" s="15" t="s">
         <v>21</v>
@@ -5804,7 +5798,7 @@
         <v>21</v>
       </c>
       <c r="AQ40" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -5812,32 +5806,32 @@
         <v>44838.432596307874</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="20" t="s">
@@ -5848,25 +5842,25 @@
         <v>30</v>
       </c>
       <c r="P41" s="22" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q41" s="22" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="R41" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S41" s="15" t="s">
         <v>30</v>
       </c>
       <c r="T41" s="24" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="U41" s="24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="V41" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W41" s="15" t="s">
         <v>21</v>
@@ -5893,7 +5887,7 @@
         <v>21</v>
       </c>
       <c r="AQ41" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -5901,32 +5895,32 @@
         <v>44838.458597673613</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="20" t="s">
@@ -5960,7 +5954,7 @@
       <c r="AO42" s="19"/>
       <c r="AP42" s="19"/>
       <c r="AQ42" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -5968,30 +5962,30 @@
         <v>44838.49724636574</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="20" t="s">
@@ -6002,37 +5996,37 @@
         <v>30</v>
       </c>
       <c r="P43" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q43" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="R43" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T43" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="U43" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="V43" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X43" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y43" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="Q43" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="R43" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S43" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T43" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="U43" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="V43" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="W43" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X43" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y43" s="22" t="s">
-        <v>317</v>
-      </c>
       <c r="Z43" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA43" s="15" t="s">
         <v>21</v>
@@ -6056,7 +6050,7 @@
         <v>21</v>
       </c>
       <c r="AQ43" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6064,28 +6058,28 @@
         <v>44872.484477881946</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="K44" s="27" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M44" s="27" t="s">
         <v>21</v>
@@ -6094,13 +6088,13 @@
         <v>30</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="R44" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S44" s="27" t="s">
         <v>21</v>
@@ -6115,7 +6109,7 @@
         <v>30</v>
       </c>
       <c r="AQ44" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6123,55 +6117,55 @@
         <v>44872.512145949077</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="R45" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="27" t="s">
+      <c r="U45" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="J45" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="R45" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S45" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T45" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="U45" s="27" t="s">
-        <v>333</v>
-      </c>
       <c r="V45" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W45" s="27" t="s">
         <v>21</v>
@@ -6180,7 +6174,7 @@
         <v>21</v>
       </c>
       <c r="AQ45" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6188,19 +6182,19 @@
         <v>44873.476341388887</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AQ46" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6208,91 +6202,91 @@
         <v>44873.484311134263</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" s="27" t="s">
+      <c r="K47" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="R47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="U47" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="V47" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="W47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="X47" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="J47" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K47" s="27" t="s">
+      <c r="Y47" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="M47" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P47" s="27" t="s">
+      <c r="Z47" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB47" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="Q47" s="27" t="s">
+      <c r="AC47" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="R47" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S47" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T47" s="27" t="s">
+      <c r="AD47" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF47" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="U47" s="27" t="s">
+      <c r="AG47" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="V47" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="W47" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="X47" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y47" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z47" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA47" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB47" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC47" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD47" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE47" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF47" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG47" s="27" t="s">
-        <v>350</v>
-      </c>
       <c r="AH47" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI47" s="27" t="s">
         <v>21</v>
@@ -6307,7 +6301,7 @@
         <v>30</v>
       </c>
       <c r="AQ47" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6315,19 +6309,19 @@
         <v>44873.500517870372</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AQ48" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6335,19 +6329,19 @@
         <v>44873.504880219909</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AQ49" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6355,19 +6349,19 @@
         <v>44873.509644837963</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AQ50" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6375,49 +6369,49 @@
         <v>44873.527005231481</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H51" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q51" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="I51" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>368</v>
-      </c>
       <c r="R51" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S51" s="27" t="s">
         <v>21</v>
@@ -6426,7 +6420,7 @@
         <v>21</v>
       </c>
       <c r="AQ51" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6443,10 +6437,10 @@
         <v>21</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AQ52" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6454,55 +6448,55 @@
         <v>44875.873558819439</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="R53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T53" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="U53" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="J53" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="R53" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S53" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T53" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="U53" s="27" t="s">
-        <v>376</v>
-      </c>
       <c r="V53" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W53" s="27" t="s">
         <v>21</v>
@@ -6511,7 +6505,7 @@
         <v>21</v>
       </c>
       <c r="AQ53" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6528,22 +6522,22 @@
         <v>26</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J54" s="27" t="s">
         <v>29</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M54" s="27" t="s">
         <v>21</v>
@@ -6552,13 +6546,13 @@
         <v>30</v>
       </c>
       <c r="P54" s="27" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q54" s="27" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="R54" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S54" s="27" t="s">
         <v>30</v>
@@ -6567,10 +6561,10 @@
         <v>31</v>
       </c>
       <c r="U54" s="27" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="V54" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W54" s="27" t="s">
         <v>21</v>
@@ -6579,7 +6573,7 @@
         <v>21</v>
       </c>
       <c r="AQ54" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6587,91 +6581,91 @@
         <v>44875.915039108797</v>
       </c>
       <c r="B55" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>41</v>
-      </c>
       <c r="K55" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="R55" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="S55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T55" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="U55" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="V55" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="W55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="X55" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y55" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="M55" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P55" s="27" t="s">
+      <c r="Z55" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB55" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="Q55" s="27" t="s">
+      <c r="AC55" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="R55" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="S55" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T55" s="27" t="s">
+      <c r="AD55" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF55" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="U55" s="27" t="s">
+      <c r="AG55" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="V55" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="W55" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="X55" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y55" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z55" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA55" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB55" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC55" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="AD55" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE55" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF55" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG55" s="27" t="s">
-        <v>393</v>
-      </c>
       <c r="AH55" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI55" s="27" t="s">
         <v>21</v>
@@ -6686,7 +6680,7 @@
         <v>30</v>
       </c>
       <c r="AQ55" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6694,19 +6688,19 @@
         <v>44875.916624756945</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AQ56" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6714,19 +6708,19 @@
         <v>44875.961216631942</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AQ57" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6734,19 +6728,19 @@
         <v>44876.414951354163</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AQ58" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6754,19 +6748,19 @@
         <v>44876.421408333335</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AQ59" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6774,46 +6768,46 @@
         <v>44876.438731539354</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J60" s="27" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K60" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="M60" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>410</v>
-      </c>
       <c r="Q60" s="27" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="R60" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S60" s="27" t="s">
         <v>21</v>
@@ -6822,7 +6816,7 @@
         <v>21</v>
       </c>
       <c r="AQ60" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6830,67 +6824,67 @@
         <v>44876.454161145833</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="J61" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G61" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I61" s="27" t="s">
+      <c r="K61" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="R61" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T61" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="U61" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="V61" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="X61" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="J61" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K61" s="27" t="s">
+      <c r="Y61" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="M61" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="R61" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S61" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T61" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="U61" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="V61" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="W61" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="X61" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y61" s="27" t="s">
-        <v>421</v>
-      </c>
       <c r="Z61" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA61" s="27" t="s">
         <v>21</v>
@@ -6905,7 +6899,7 @@
         <v>30</v>
       </c>
       <c r="AQ61" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6913,16 +6907,16 @@
         <v>44879.42159917824</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>21</v>
       </c>
       <c r="AQ62" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6930,16 +6924,16 @@
         <v>44879.42352945602</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AQ63" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6947,34 +6941,34 @@
         <v>44879.429561296296</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F64" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="G64" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="27" t="s">
-        <v>35</v>
-      </c>
       <c r="I64" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J64" s="27" t="s">
         <v>29</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M64" s="27" t="s">
         <v>30</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="O64" s="27" t="s">
         <v>21</v>
@@ -6989,7 +6983,7 @@
         <v>21</v>
       </c>
       <c r="AQ64" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -6997,28 +6991,28 @@
         <v>44879.436075393518</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F65" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="J65" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G65" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="K65" s="27" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M65" s="27" t="s">
         <v>21</v>
@@ -7027,13 +7021,13 @@
         <v>30</v>
       </c>
       <c r="P65" s="27" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q65" s="27" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="R65" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S65" s="27" t="s">
         <v>21</v>
@@ -7042,7 +7036,7 @@
         <v>21</v>
       </c>
       <c r="AQ65" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7050,19 +7044,19 @@
         <v>44879.440003055555</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AQ66" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7070,31 +7064,31 @@
         <v>44879.449258449073</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>441</v>
+        <v>641</v>
       </c>
       <c r="G67" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I67" s="27" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J67" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M67" s="27" t="s">
         <v>21</v>
@@ -7103,25 +7097,25 @@
         <v>30</v>
       </c>
       <c r="P67" s="27" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q67" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R67" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S67" s="27" t="s">
         <v>30</v>
       </c>
       <c r="T67" s="27" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="U67" s="27" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="V67" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W67" s="27" t="s">
         <v>21</v>
@@ -7136,7 +7130,7 @@
         <v>30</v>
       </c>
       <c r="AQ67" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7144,16 +7138,16 @@
         <v>44879.466680081023</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>21</v>
       </c>
       <c r="AQ68" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7161,19 +7155,19 @@
         <v>44879.467524814812</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AQ69" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7181,31 +7175,31 @@
         <v>44879.475091863424</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F70" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="J70" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G70" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I70" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>91</v>
-      </c>
       <c r="K70" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M70" s="27" t="s">
         <v>21</v>
@@ -7214,25 +7208,25 @@
         <v>30</v>
       </c>
       <c r="P70" s="27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Q70" s="27" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="R70" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S70" s="27" t="s">
         <v>30</v>
       </c>
       <c r="T70" s="27" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="U70" s="27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="V70" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W70" s="27" t="s">
         <v>21</v>
@@ -7247,7 +7241,7 @@
         <v>30</v>
       </c>
       <c r="AQ70" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7255,28 +7249,28 @@
         <v>44879.52020194444</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>462</v>
+        <v>635</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J71" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M71" s="27" t="s">
         <v>21</v>
@@ -7285,37 +7279,37 @@
         <v>30</v>
       </c>
       <c r="P71" s="27" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="Q71" s="27" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="R71" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S71" s="27" t="s">
         <v>30</v>
       </c>
       <c r="T71" s="27" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="U71" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="V71" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W71" s="27" t="s">
         <v>30</v>
       </c>
       <c r="X71" s="27" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="Y71" s="27" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="Z71" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA71" s="27" t="s">
         <v>21</v>
@@ -7330,7 +7324,7 @@
         <v>30</v>
       </c>
       <c r="AQ71" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7338,16 +7332,16 @@
         <v>44879.572188958336</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>21</v>
       </c>
       <c r="AQ72" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7355,16 +7349,16 @@
         <v>44879.575715555555</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>21</v>
       </c>
       <c r="AQ73" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7372,31 +7366,31 @@
         <v>44879.584915231477</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I74" s="27" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="J74" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K74" s="27" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M74" s="27" t="s">
         <v>21</v>
@@ -7405,13 +7399,13 @@
         <v>30</v>
       </c>
       <c r="P74" s="27" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q74" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R74" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S74" s="27" t="s">
         <v>21</v>
@@ -7426,7 +7420,7 @@
         <v>30</v>
       </c>
       <c r="AQ74" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7434,16 +7428,16 @@
         <v>44879.587629814814</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>21</v>
       </c>
       <c r="AQ75" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7451,28 +7445,28 @@
         <v>44879.596528333335</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F76" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="G76" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G76" s="27" t="s">
-        <v>35</v>
-      </c>
       <c r="I76" s="27" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M76" s="27" t="s">
         <v>21</v>
@@ -7481,37 +7475,37 @@
         <v>30</v>
       </c>
       <c r="P76" s="27" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="Q76" s="27" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="R76" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S76" s="27" t="s">
         <v>30</v>
       </c>
       <c r="T76" s="27" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="U76" s="27" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="V76" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W76" s="27" t="s">
         <v>30</v>
       </c>
       <c r="X76" s="27" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Y76" s="27" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="Z76" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA76" s="27" t="s">
         <v>21</v>
@@ -7526,7 +7520,7 @@
         <v>30</v>
       </c>
       <c r="AQ76" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7534,58 +7528,58 @@
         <v>44882.621864930552</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>39</v>
+        <v>639</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I77" s="27" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K77" s="27" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M77" s="27" t="s">
         <v>30</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="O77" s="27" t="s">
         <v>30</v>
       </c>
       <c r="P77" s="27" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="Q77" s="27" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="R77" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S77" s="27" t="s">
         <v>30</v>
       </c>
       <c r="T77" s="27" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="U77" s="27" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="V77" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W77" s="27" t="s">
         <v>21</v>
@@ -7600,7 +7594,7 @@
         <v>30</v>
       </c>
       <c r="AQ77" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7608,10 +7602,10 @@
         <v>44882.63297496528</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>26</v>
@@ -7620,16 +7614,16 @@
         <v>27</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I78" s="27" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K78" s="27" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="M78" s="27" t="s">
         <v>21</v>
@@ -7638,13 +7632,13 @@
         <v>30</v>
       </c>
       <c r="P78" s="27" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="Q78" s="27" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="R78" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S78" s="27" t="s">
         <v>21</v>
@@ -7653,7 +7647,7 @@
         <v>21</v>
       </c>
       <c r="AQ78" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7661,28 +7655,28 @@
         <v>44882.639685127317</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I79" s="27" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K79" s="27" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M79" s="27" t="s">
         <v>21</v>
@@ -7694,7 +7688,7 @@
         <v>21</v>
       </c>
       <c r="AQ79" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7702,31 +7696,31 @@
         <v>44882.647948854166</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D80" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>34</v>
+        <v>637</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H80" s="27" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K80" s="27" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M80" s="27" t="s">
         <v>21</v>
@@ -7735,37 +7729,37 @@
         <v>30</v>
       </c>
       <c r="P80" s="27" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="Q80" s="27" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="R80" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S80" s="27" t="s">
         <v>30</v>
       </c>
       <c r="T80" s="27" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="U80" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="V80" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W80" s="27" t="s">
         <v>30</v>
       </c>
       <c r="X80" s="27" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="Y80" s="27" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="Z80" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA80" s="27" t="s">
         <v>21</v>
@@ -7774,7 +7768,7 @@
         <v>21</v>
       </c>
       <c r="AQ80" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7782,19 +7776,19 @@
         <v>44882.649011504633</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AQ81" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7802,10 +7796,10 @@
         <v>44882.652757534721</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>26</v>
@@ -7817,16 +7811,16 @@
         <v>28</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K82" s="27" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M82" s="27" t="s">
         <v>21</v>
@@ -7835,13 +7829,13 @@
         <v>30</v>
       </c>
       <c r="P82" s="27" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="Q82" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R82" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S82" s="27" t="s">
         <v>21</v>
@@ -7856,7 +7850,7 @@
         <v>30</v>
       </c>
       <c r="AQ82" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7864,28 +7858,28 @@
         <v>44882.672531006945</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>532</v>
+        <v>642</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K83" s="27" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="M83" s="27" t="s">
         <v>21</v>
@@ -7897,7 +7891,7 @@
         <v>21</v>
       </c>
       <c r="AQ83" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7905,19 +7899,19 @@
         <v>44882.681590590277</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AQ84" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7925,28 +7919,28 @@
         <v>44882.685816006946</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K85" s="27" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M85" s="27" t="s">
         <v>21</v>
@@ -7955,13 +7949,13 @@
         <v>30</v>
       </c>
       <c r="P85" s="27" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="Q85" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R85" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S85" s="27" t="s">
         <v>21</v>
@@ -7970,7 +7964,7 @@
         <v>21</v>
       </c>
       <c r="AQ85" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7978,19 +7972,19 @@
         <v>44882.691817546292</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="AQ86" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -7998,19 +7992,19 @@
         <v>44882.692981863423</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AQ87" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8018,31 +8012,31 @@
         <v>44882.706741724542</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H88" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="M88" s="27" t="s">
         <v>21</v>
@@ -8060,7 +8054,7 @@
         <v>30</v>
       </c>
       <c r="AQ88" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8068,28 +8062,28 @@
         <v>44882.716180509262</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>554</v>
+        <v>643</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I89" s="27" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="J89" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K89" s="27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M89" s="27" t="s">
         <v>21</v>
@@ -8098,13 +8092,13 @@
         <v>30</v>
       </c>
       <c r="P89" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="Q89" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R89" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S89" s="27" t="s">
         <v>21</v>
@@ -8119,7 +8113,7 @@
         <v>30</v>
       </c>
       <c r="AQ89" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8127,28 +8121,28 @@
         <v>44883.443322569445</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D90" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F90" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="G90" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G90" s="27" t="s">
-        <v>35</v>
-      </c>
       <c r="I90" s="27" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="J90" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K90" s="27" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M90" s="27" t="s">
         <v>21</v>
@@ -8157,49 +8151,49 @@
         <v>30</v>
       </c>
       <c r="P90" s="27" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q90" s="27" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="R90" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S90" s="27" t="s">
         <v>30</v>
       </c>
       <c r="T90" s="27" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="U90" s="27" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="V90" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W90" s="27" t="s">
         <v>30</v>
       </c>
       <c r="X90" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="Y90" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Z90" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA90" s="27" t="s">
         <v>30</v>
       </c>
       <c r="AB90" s="27" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="AC90" s="27" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="AD90" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AE90" s="27" t="s">
         <v>21</v>
@@ -8214,7 +8208,7 @@
         <v>30</v>
       </c>
       <c r="AQ90" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8222,19 +8216,19 @@
         <v>44883.463751180556</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D91" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="AQ91" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8242,49 +8236,49 @@
         <v>44883.473071238426</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D92" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H92" s="27" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J92" s="27" t="s">
         <v>29</v>
       </c>
       <c r="K92" s="27" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="M92" s="27" t="s">
         <v>30</v>
       </c>
       <c r="N92" s="27" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="O92" s="27" t="s">
         <v>30</v>
       </c>
       <c r="P92" s="27" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="Q92" s="27" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="R92" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S92" s="27" t="s">
         <v>21</v>
@@ -8299,7 +8293,7 @@
         <v>30</v>
       </c>
       <c r="AQ92" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8307,91 +8301,91 @@
         <v>44883.487381747684</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F93" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="J93" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="K93" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="M93" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O93" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P93" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q93" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="R93" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S93" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T93" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="U93" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="V93" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W93" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="X93" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y93" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z93" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA93" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB93" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="AC93" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD93" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE93" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF93" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="AG93" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="G93" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I93" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="J93" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="K93" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="M93" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O93" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P93" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q93" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="R93" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S93" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T93" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="U93" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="V93" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="W93" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="X93" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="Y93" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z93" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA93" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB93" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="AC93" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="AD93" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE93" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF93" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG93" s="27" t="s">
-        <v>593</v>
-      </c>
       <c r="AH93" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AI93" s="27" t="s">
         <v>21</v>
@@ -8406,7 +8400,7 @@
         <v>30</v>
       </c>
       <c r="AQ93" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8414,19 +8408,19 @@
         <v>44883.503285844912</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="AQ94" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8434,19 +8428,19 @@
         <v>44883.50445025463</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D95" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AQ95" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8454,19 +8448,19 @@
         <v>44883.513451620369</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AQ96" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8474,28 +8468,28 @@
         <v>44883.518197349535</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I97" s="27" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="J97" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K97" s="27" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="M97" s="27" t="s">
         <v>21</v>
@@ -8504,13 +8498,13 @@
         <v>30</v>
       </c>
       <c r="P97" s="27" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="Q97" s="27" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="R97" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S97" s="27" t="s">
         <v>21</v>
@@ -8519,7 +8513,7 @@
         <v>21</v>
       </c>
       <c r="AQ97" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8527,19 +8521,19 @@
         <v>44883.555777048612</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AQ98" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:43" s="28" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -8547,31 +8541,31 @@
         <v>44883.566361377314</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="I99" s="27" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="J99" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K99" s="27" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="M99" s="27" t="s">
         <v>21</v>
@@ -8580,37 +8574,37 @@
         <v>30</v>
       </c>
       <c r="P99" s="27" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="Q99" s="27" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="R99" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S99" s="27" t="s">
         <v>30</v>
       </c>
       <c r="T99" s="27" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="U99" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="V99" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W99" s="27" t="s">
         <v>30</v>
       </c>
       <c r="X99" s="27" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="Y99" s="27" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="Z99" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA99" s="27" t="s">
         <v>21</v>
@@ -8619,7 +8613,7 @@
         <v>21</v>
       </c>
       <c r="AQ99" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:43" ht="13" x14ac:dyDescent="0.15">
